--- a/app/Plantillas/Validados/PRUEBA_texto.xlsx
+++ b/app/Plantillas/Validados/PRUEBA_texto.xlsx
@@ -776,13 +776,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE720B4D-D26C-401D-89A1-25F0FA0E5F38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D12F4C4-21D1-4364-B490-465E45F51299}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CFC8B4C-2309-47AA-9907-C6C392C0D461}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5CDF4AB-3F0D-40CA-8321-0BD62FF74907}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94F109AF-E4E2-43C0-A014-C9A5D1B46F04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0D1DD26-9A8E-4D82-989D-D3E82A56FB60}"/>
 </file>